--- a/Resource/BookData.xlsx
+++ b/Resource/BookData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Russel</t>
-  </si>
-  <si>
-    <t>Stored in Map</t>
   </si>
   <si>
     <t>STATUS</t>
@@ -82,7 +79,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,19 +414,19 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -456,7 +452,7 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -481,9 +477,6 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -507,9 +500,6 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -532,9 +522,6 @@
       </c>
       <c r="G4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
